--- a/docs/assets/disciplinas/LOM3228.xlsx
+++ b/docs/assets/disciplinas/LOM3228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer os conhecimentos sobre sistemas de vácuo e técnicas de produção e utilização de baixas temperaturas.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Sistemas de vácuo. Criogenia e baixa temperatura.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,10 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Teoria dos gases rarefeitos. Escoamento de gases. Bombas de vácuo. Descrição quantitativa do bombeamento de sistemas de vácuo. Medidores de pressão. Acessórios: armadilhas, anteparos, válvulas, etc. Adsorção, dessorção e evaporação de moléculas em vácuo. Detecção de vazamento. Vedação. Soldagem. Limpeza. 
-Criogenia. Propriedades de gases e líquidos criogênicos. Métodos para obtenção de baixa temperatura. Liquefação de gases. Medição de temperatura. Componentes criogênicos. Cálculo de transferência de calor em criostatos e dewars.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -107,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ROTH, A. Vacuum Technology, North-Holland, 1990.
-HARRIS, N. S. Modern Vacuum Practice, McGraw-Hill, 1989.
-HABLANIAN, M. H. High-Vacuum Technology, Marcel Dekker, 1997.
-BARRON, R. F. Cryogenic Systems, Oxford University Press, 1985.
-WEISEND, J. G. The Handbook of Cryogenic Engineering, Boca Raton: CRC Press, 1998.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -492,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3228.xlsx
+++ b/docs/assets/disciplinas/LOM3228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide knowledge about vacuum systems and production techniques and use of low temperatures.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Vacuum systems. Cryogenics and low temperature.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Theory of rarefied gases. Gas flow. Vacuum pumps. Quantitative description of the pumping of vacuum systems. Pressure gauges. Accessories: traps, shields, valves, etc. Adsorption, desorption and evaporation of molecules in vacuum. Leak detection .Sealing.Welding.Cleaning.cryogenics. Properties of cryogenic gases and liquids. Methods for obtaining low temperature. Liquefaction of gases. Temperature measurement. Cryogenic components. Calculation of heat transfer in cryostats and dewars.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,31 +606,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +653,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +680,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3228.xlsx
+++ b/docs/assets/disciplinas/LOM3228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer os conhecimentos sobre sistemas de vácuo e técnicas de produção e utilização de baixas temperaturas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide knowledge about vacuum systems and production techniques and use of low temperatures.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide knowledge about vacuum systems and production techniques and use of low temperatures.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Sistemas de vácuo. Criogenia e baixa temperatura.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Teoria dos gases rarefeitos. Escoamento de gases. Bombas de vácuo. Descrição quantitativa do bombeamento de sistemas de vácuo. Medidores de pressão. Acessórios: armadilhas, anteparos, válvulas, etc. Adsorção, dessorção e evaporação de moléculas em vácuo. Detecção de vazamento. Vedação. Soldagem. Limpeza. Criogenia. Propriedades de gases e líquidos criogênicos. Métodos para obtenção de baixa temperatura. Liquefação de gases. Medição de temperatura. Componentes criogênicos. Cálculo de transferência de calor em criostatos e dewars.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
+    <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
+    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>ROTH, A. Vacuum Technology, North-Holland, 1990.
+HARRIS, N. S. Modern Vacuum Practice, McGraw-Hill, 1989.
+HABLANIAN, M. H. High-Vacuum Technology, Marcel Dekker, 1997.
+BARRON, R. F. Cryogenic Systems, Oxford University Press, 1985.
+WEISEND, J. G. The Handbook of Cryogenic Engineering, Boca Raton: CRC Press, 1998.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +631,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +672,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
